--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85C148-AD7F-4AC5-8B75-76334589D431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36687C65-015A-471D-84EA-0E4300314CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>no company yet</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
@@ -564,348 +567,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="115.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="196" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="115.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="196" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>23</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>21</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>60</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>67</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>61</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>33</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" t="s">
-        <v>71</v>
-      </c>
       <c r="R11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36687C65-015A-471D-84EA-0E4300314CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF8764-7CF1-4210-A992-E1182C0EE02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>infomail</t>
+  </si>
+  <si>
+    <t>[info@efspiworkshop.org](mailto:info@efspiworkshop.org)</t>
+  </si>
+  <si>
+    <t>fee_v</t>
+  </si>
+  <si>
+    <t>fee_f</t>
   </si>
 </sst>
 </file>
@@ -567,35 +579,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="115.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="196" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="115.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="196" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -603,259 +619,281 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>23</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>21</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>47</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>27</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>28</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10">
+        <v>280</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
         <v>52</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>57</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>67</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>30</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -863,59 +901,68 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11">
+        <v>280</v>
+      </c>
+      <c r="K11">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>61</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>68</v>
       </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" t="s">
+      <c r="U11" t="s">
         <v>44</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="Q6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF8764-7CF1-4210-A992-E1182C0EE02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785743E6-D92C-455C-8543-7DE9ECC441B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -181,9 +192,6 @@
     <t>15th August 2024</t>
   </si>
   <si>
-    <t>15th August 2025</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -251,6 +259,12 @@
   </si>
   <si>
     <t>fee_f</t>
+  </si>
+  <si>
+    <t>11th August 2025</t>
+  </si>
+  <si>
+    <t>Roche and Novartis so far</t>
   </si>
 </sst>
 </file>
@@ -581,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,46 +630,46 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
       </c>
       <c r="I1" t="s">
         <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
         <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
         <v>9</v>
@@ -673,10 +687,10 @@
         <v>40</v>
       </c>
       <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
         <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -828,7 +842,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -857,7 +871,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -875,13 +889,13 @@
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s">
         <v>29</v>
@@ -901,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -928,16 +942,16 @@
         <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s">
         <v>34</v>
@@ -952,10 +966,10 @@
         <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785743E6-D92C-455C-8543-7DE9ECC441B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59E575-1AD1-49ED-A44D-5012689F7345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -249,12 +249,6 @@
     <t>Current</t>
   </si>
   <si>
-    <t>infomail</t>
-  </si>
-  <si>
-    <t>[info@efspiworkshop.org](mailto:info@efspiworkshop.org)</t>
-  </si>
-  <si>
     <t>fee_v</t>
   </si>
   <si>
@@ -265,6 +259,18 @@
   </si>
   <si>
     <t>Roche and Novartis so far</t>
+  </si>
+  <si>
+    <t>cashier</t>
+  </si>
+  <si>
+    <t>cashiermail</t>
+  </si>
+  <si>
+    <t>Egbert Biesheuvel</t>
+  </si>
+  <si>
+    <t>egbert.biesheuvel@viatris.com</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,26 +612,26 @@
     <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="115.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="196" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="115.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="196" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -642,199 +648,201 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>44</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>14</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>17</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>23</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>21</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -842,28 +850,25 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>47</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>27</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>28</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -871,43 +876,40 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>280</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>52</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>59</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>66</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>30</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -924,59 +926,62 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>280</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
-        <v>76</v>
-      </c>
       <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" t="s">
         <v>57</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>60</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>67</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>32</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>41</v>
       </c>
-      <c r="U11" t="s">
-        <v>77</v>
-      </c>
       <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
-    <hyperlink ref="H11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59E575-1AD1-49ED-A44D-5012689F7345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C199A-C36B-49D9-9F61-5213C6891439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>prog_version</t>
   </si>
   <si>
-    <t>8th May 2025</t>
-  </si>
-  <si>
     <t>chair</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>egbert.biesheuvel@viatris.com</t>
+  </si>
+  <si>
+    <t>28th May 2025</t>
   </si>
 </sst>
 </file>
@@ -602,41 +602,41 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="115.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="115.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="196" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -648,25 +648,25 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
       <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>76</v>
-      </c>
-      <c r="I1" t="s">
-        <v>77</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
         <v>51</v>
@@ -678,7 +678,7 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
@@ -696,13 +696,13 @@
         <v>40</v>
       </c>
       <c r="V1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -868,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -897,7 +897,7 @@
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
         <v>29</v>
@@ -909,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -932,10 +932,10 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -947,7 +947,7 @@
         <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
         <v>57</v>
@@ -956,7 +956,7 @@
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
         <v>34</v>
@@ -971,10 +971,10 @@
         <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C199A-C36B-49D9-9F61-5213C6891439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C41DE2-1032-4DE6-8BE8-7FD2DC6615DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1710" windowWidth="21350" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>egbert.biesheuvel@viatris.com</t>
   </si>
   <si>
-    <t>28th May 2025</t>
+    <t>5th June 2025</t>
   </si>
 </sst>
 </file>
@@ -605,33 +605,33 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.1796875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="115.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="115.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="196" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -868,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -909,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C41DE2-1032-4DE6-8BE8-7FD2DC6615DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CBC6F-5E46-4C6C-B4C2-DDE06BA1DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1710" windowWidth="21350" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>egbert.biesheuvel@viatris.com</t>
   </si>
   <si>
-    <t>5th June 2025</t>
+    <t>16th June 2025</t>
   </si>
 </sst>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CBC6F-5E46-4C6C-B4C2-DDE06BA1DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02634FA0-B27B-4232-ABCB-F7005561F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>egbert.biesheuvel@viatris.com</t>
   </si>
   <si>
-    <t>16th June 2025</t>
+    <t>20th June 2025</t>
   </si>
 </sst>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02634FA0-B27B-4232-ABCB-F7005561F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D0728-52EC-456C-9BEC-C2026C68BD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>egbert.biesheuvel@viatris.com</t>
   </si>
   <si>
-    <t>20th June 2025</t>
+    <t>7th July 2025</t>
   </si>
 </sst>
 </file>
@@ -605,33 +605,33 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="115.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="115.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="196" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -868,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -909,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D0728-52EC-456C-9BEC-C2026C68BD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F959D-87EE-4E52-867A-6905B483A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>block_virtual</t>
   </si>
   <si>
-    <t>no company yet</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>11th August 2025</t>
   </si>
   <si>
-    <t>Roche and Novartis so far</t>
-  </si>
-  <si>
     <t>cashier</t>
   </si>
   <si>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>7th July 2025</t>
+  </si>
+  <si>
+    <t>Roche, Novartis, Boehringer</t>
+  </si>
+  <si>
+    <t>Merck KGaA, Bayer, BMS</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -654,19 +654,19 @@
         <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
         <v>51</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -932,10 +932,10 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
         <v>49</v>
@@ -947,7 +947,7 @@
         <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
         <v>57</v>
@@ -971,10 +971,10 @@
         <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F959D-87EE-4E52-867A-6905B483A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C64E68-A0BD-46AF-9FDB-EC5ECC624139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,13 +264,13 @@
     <t>egbert.biesheuvel@viatris.com</t>
   </si>
   <si>
-    <t>7th July 2025</t>
-  </si>
-  <si>
     <t>Roche, Novartis, Boehringer</t>
   </si>
   <si>
     <t>Merck KGaA, Bayer, BMS</t>
+  </si>
+  <si>
+    <t>15th July 2025</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -971,10 +971,10 @@
         <v>41</v>
       </c>
       <c r="V11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s">
         <v>78</v>
-      </c>
-      <c r="W11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C64E68-A0BD-46AF-9FDB-EC5ECC624139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE58D0E-D962-4E53-A7FD-003C54CD25D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>Merck KGaA, Bayer, BMS</t>
   </si>
   <si>
-    <t>15th July 2025</t>
+    <t>21st July 2025</t>
   </si>
 </sst>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE58D0E-D962-4E53-A7FD-003C54CD25D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3FC90F-6ACF-48C7-9A1A-43D4757DD0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>Merck KGaA, Bayer, BMS</t>
   </si>
   <si>
-    <t>21st July 2025</t>
+    <t>24th July 2025</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3FC90F-6ACF-48C7-9A1A-43D4757DD0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D303A-CC8A-43F0-8E22-1493242F3670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>Merck KGaA, Bayer, BMS</t>
   </si>
   <si>
-    <t>24th July 2025</t>
+    <t>7th August 2025</t>
   </si>
 </sst>
 </file>
@@ -602,36 +602,36 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.1796875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="115.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="115.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="196" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -702,7 +702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -816,7 +816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -868,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -909,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D303A-CC8A-43F0-8E22-1493242F3670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E102EA55-F54C-4835-A9A6-5532DB4F0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Merck KGaA, Bayer, BMS</t>
-  </si>
-  <si>
-    <t>7th August 2025</t>
   </si>
 </sst>
 </file>
@@ -917,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E102EA55-F54C-4835-A9A6-5532DB4F0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B9B26-8086-4810-861D-ED8BC9D06735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,31 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/4th_efspi_workshop_on_regulatory_statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/5th_efspi_workshop_on_regulatory_statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/documents/events/events%202018/3rd%20EFSPI%20RegStat%20Basel%20program.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/3rd_efspi_workshop_on_regulatory_statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/documents/Events/EFSPI%20flyer%20Statistical%20Workshop%20program%202017%20V1.1%20September.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/2nd_EFSPI_Workshop_on_Regulatory_Statistics.aspx</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/documents/events/EFSPI%20flyer%20Statistical%20Workshop%202016%20V6Aug5.PDF</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/EFSPI/Events/Regulatory_Meetings/1st_EFSPI_Workshop_on_Regulatory_Statistics.aspx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -66,18 +42,9 @@
     <t>Slidedecks</t>
   </si>
   <si>
-    <t>https://www.efspi.org/Documents/Events/Events%202021/6th%20EFSPI%20RegStat%20Workshop%20program.pdf</t>
-  </si>
-  <si>
-    <t>https://www.efspi.org/Documents/Events/Events%202020/Webinars/5th%20EFSPI%20RegStat%20Workshop%20program.PDF</t>
-  </si>
-  <si>
     <t>Feedbacks</t>
   </si>
   <si>
-    <t>https://efspi.org/EFSPI/Events/Annual_Regulatory_Statistics_Workshops/Past_Meetings/2021/EFSPI/Events/Regulatory_Meetings/6th_EFSPI_Workshop_on_Reglatory_Statistics.aspx?hkey=e56e0946-2af2-4ba6-98b9-e2944f77e3bb</t>
-  </si>
-  <si>
     <t>data/2019/feedback2019.html</t>
   </si>
   <si>
@@ -87,9 +54,6 @@
     <t>data/2021/feedback2021.html</t>
   </si>
   <si>
-    <t>data/2019/4th EFSPI RegStat Basel program.pdf</t>
-  </si>
-  <si>
     <t>Registrations</t>
   </si>
   <si>
@@ -102,9 +66,6 @@
     <t>data/2021/6th_EFSPI_RegStat_registrations.pdf</t>
   </si>
   <si>
-    <t>https://efspi.org/EFSPI/Events/Annual_Regulatory_Statistics_Workshops/Next_Meeting/EFSPI/Events/Regulatory_Meetings/7th_EFSPI_Workshop_on_Reglatory_Statistics.aspx</t>
-  </si>
-  <si>
     <t>data/2022/7th EFSPI RegStat Workshop program.pdf</t>
   </si>
   <si>
@@ -268,6 +229,27 @@
   </si>
   <si>
     <t>Merck KGaA, Bayer, BMS</t>
+  </si>
+  <si>
+    <t>https://www.efspi.org/past-workshops-2/</t>
+  </si>
+  <si>
+    <t>data/2016/1st EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>data/2017/2nd EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>data/2018/3rd EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>data/2019/4th EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>data/2020/5th EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>data/2021/6th EFSPI RegStat Workshop program.pdf</t>
   </si>
 </sst>
 </file>
@@ -599,284 +581,286 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="115.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="196" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="210.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="S6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="S7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="T8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="T9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>280</v>
@@ -885,28 +869,28 @@
         <v>70</v>
       </c>
       <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
         <v>52</v>
       </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -914,28 +898,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>280</v>
@@ -944,43 +928,44 @@
         <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="R2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
+    <hyperlink ref="R3:R8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B9B26-8086-4810-861D-ED8BC9D06735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1099A937-706C-4B44-A6CE-DDC89E215791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>data/2021/6th EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>29th August 2025</t>
   </si>
 </sst>
 </file>
@@ -581,38 +584,38 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="123.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="210.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="123.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="210.26953125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -700,7 +703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -717,7 +720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -734,7 +737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -754,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -774,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -797,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -823,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -849,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -890,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1099A937-706C-4B44-A6CE-DDC89E215791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200B5F6-955C-4103-9161-4EA74F6AB32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>https://forms.gle/JWc1ZyUKxq5Lhhwf6</t>
   </si>
   <si>
-    <t>https://forms.gle/w2tAuqG7LouiM5hJA</t>
-  </si>
-  <si>
     <t>asafda</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>29th August 2025</t>
+  </si>
+  <si>
+    <t>https://forms.gle/8pHRStP2KumdDtRKA</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,49 +620,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -677,13 +677,13 @@
         <v>7</v>
       </c>
       <c r="U1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" t="s">
         <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -691,16 +691,16 @@
         <v>2016</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -708,16 +708,16 @@
         <v>2017</v>
       </c>
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -725,16 +725,16 @@
         <v>2018</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -742,16 +742,16 @@
         <v>2019</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -762,16 +762,16 @@
         <v>2020</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s">
         <v>5</v>
@@ -782,16 +782,16 @@
         <v>2021</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S7" t="s">
         <v>6</v>
@@ -808,16 +808,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>11</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S8" t="s">
         <v>9</v>
@@ -834,10 +834,10 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" t="s">
         <v>12</v>
@@ -860,10 +860,10 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
       </c>
       <c r="K10">
         <v>280</v>
@@ -872,16 +872,16 @@
         <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="s">
         <v>16</v>
@@ -901,28 +901,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
       <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
       </c>
       <c r="K11">
         <v>280</v>
@@ -931,16 +931,16 @@
         <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" t="s">
         <v>21</v>
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="U11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W11" t="s">
         <v>64</v>
-      </c>
-      <c r="W11" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200B5F6-955C-4103-9161-4EA74F6AB32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF690A0-B418-4CFE-9CFE-0B23A641F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,10 +249,10 @@
     <t>data/2021/6th EFSPI RegStat Workshop program.pdf</t>
   </si>
   <si>
-    <t>29th August 2025</t>
-  </si>
-  <si>
     <t>https://forms.gle/8pHRStP2KumdDtRKA</t>
+  </si>
+  <si>
+    <t>4th September</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,13 +901,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF690A0-B418-4CFE-9CFE-0B23A641F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C627DC9-3E46-458A-90DA-5AC7412215B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -253,13 +253,40 @@
   </si>
   <si>
     <t>4th September</t>
+  </si>
+  <si>
+    <t>zoom1</t>
+  </si>
+  <si>
+    <t>zoomcode1</t>
+  </si>
+  <si>
+    <t>zoom2</t>
+  </si>
+  <si>
+    <t>zoomcode2</t>
+  </si>
+  <si>
+    <t>zoom3</t>
+  </si>
+  <si>
+    <t>zoomcode3</t>
+  </si>
+  <si>
+    <t>https://roche.zoom.us/j/93820709220</t>
+  </si>
+  <si>
+    <t>https://roche.zoom.us/j/97246263882</t>
+  </si>
+  <si>
+    <t>https://roche.zoom.us/j/93427463231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +298,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,41 +614,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="123.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="210.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,8 +724,26 @@
       <c r="W1" t="s">
         <v>54</v>
       </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -703,7 +760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -720,7 +777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -737,7 +794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -757,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -777,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -800,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -826,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -852,7 +909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -893,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -960,8 +1017,27 @@
       <c r="W11" t="s">
         <v>64</v>
       </c>
+      <c r="X11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11">
+        <v>633799</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11">
+        <v>791009</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC11">
+        <v>459403</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
     <hyperlink ref="G11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C627DC9-3E46-458A-90DA-5AC7412215B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF16883-BCC9-4AA4-9871-FFC1B41710F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>https://forms.gle/8pHRStP2KumdDtRKA</t>
   </si>
   <si>
-    <t>4th September</t>
-  </si>
-  <si>
     <t>zoom1</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>https://roche.zoom.us/j/93427463231</t>
+  </si>
+  <si>
+    <t>8th September</t>
   </si>
 </sst>
 </file>
@@ -617,44 +617,44 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,25 +725,25 @@
         <v>54</v>
       </c>
       <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -760,7 +760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -777,7 +777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -794,7 +794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -857,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -909,7 +909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -950,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -1018,19 +1018,19 @@
         <v>64</v>
       </c>
       <c r="X11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y11">
         <v>633799</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA11">
         <v>791009</v>
       </c>
       <c r="AB11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC11">
         <v>459403</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF16883-BCC9-4AA4-9871-FFC1B41710F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5527E83-A04E-4F2B-B268-C1F49879F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>8th September</t>
+  </si>
+  <si>
+    <t>19-20th August 2026</t>
   </si>
 </sst>
 </file>
@@ -614,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,6 +1039,23 @@
         <v>459403</v>
       </c>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2026</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1043,8 +1063,9 @@
     <hyperlink ref="G11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
     <hyperlink ref="R2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
     <hyperlink ref="R3:R8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{CF6D3815-16F2-4234-A2EA-8ED8E350CD07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5527E83-A04E-4F2B-B268-C1F49879F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3F8E5-4D42-4A36-A8AD-7203775EF254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>Year</t>
   </si>
@@ -283,6 +283,36 @@
   </si>
   <si>
     <t>19-20th August 2026</t>
+  </si>
+  <si>
+    <t>21st July 2026</t>
+  </si>
+  <si>
+    <t>4th August 2026 EOB</t>
+  </si>
+  <si>
+    <t>17th August 2026 EOB</t>
+  </si>
+  <si>
+    <t>10th August 2026</t>
+  </si>
+  <si>
+    <t>/data/2026/slides.html</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>11th EFSPI regulatory statistics workshop</t>
+  </si>
+  <si>
+    <t>not available yet</t>
+  </si>
+  <si>
+    <t>data/2026/11th EFSPI RegStat Workshop program.pdf</t>
+  </si>
+  <si>
+    <t>data/2026/analysis2026.html</t>
   </si>
 </sst>
 </file>
@@ -617,47 +647,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,405 +696,444 @@
         <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>6</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>9</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>12</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>14</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>15</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>280</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>70</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>45</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>16</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>17</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11">
+      <c r="L11">
         <v>280</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>58</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>46</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>21</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>19</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>20</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>27</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>63</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>64</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>79</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>633799</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>80</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>791009</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>81</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>459403</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2026</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
-    <hyperlink ref="G11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
-    <hyperlink ref="R2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
-    <hyperlink ref="R3:R8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{CF6D3815-16F2-4234-A2EA-8ED8E350CD07}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
+    <hyperlink ref="I11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="S2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
+    <hyperlink ref="S3:S8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{CF6D3815-16F2-4234-A2EA-8ED8E350CD07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3F8E5-4D42-4A36-A8AD-7203775EF254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA147D5-820D-4805-8392-12E510126446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,8 +650,8 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF12" sqref="AF12"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA147D5-820D-4805-8392-12E510126446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA3283-99DC-4266-A327-2FBDB418238B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,45 +650,45 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G30" sqref="G30"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -797,7 +797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -814,7 +814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -831,7 +831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -946,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -987,7 +987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>459403</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2026</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA3283-99DC-4266-A327-2FBDB418238B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F885C-A15F-4EAA-8D1C-A8DE2663DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,9 +285,6 @@
     <t>19-20th August 2026</t>
   </si>
   <si>
-    <t>21st July 2026</t>
-  </si>
-  <si>
     <t>4th August 2026 EOB</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>data/2026/analysis2026.html</t>
+  </si>
+  <si>
+    <t>7th July 2026</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>47</v>
@@ -991,9 +991,6 @@
       <c r="A11">
         <v>2025</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="D11" t="s">
         <v>82</v>
       </c>
@@ -1078,13 +1075,13 @@
         <v>2026</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
@@ -1105,25 +1102,25 @@
         <v>62</v>
       </c>
       <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
         <v>84</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>85</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" t="s">
         <v>87</v>
       </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>92</v>
-      </c>
-      <c r="S12" t="s">
-        <v>88</v>
-      </c>
-      <c r="U12" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F885C-A15F-4EAA-8D1C-A8DE2663DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EC020-F752-480C-987B-2B22D80E55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Year</t>
   </si>
@@ -312,7 +312,13 @@
     <t>data/2026/analysis2026.html</t>
   </si>
   <si>
-    <t>7th July 2026</t>
+    <t>19th June</t>
+  </si>
+  <si>
+    <t>https://ww2.amstat.org/meetings/risw/2026/</t>
+  </si>
+  <si>
+    <t>none yet</t>
   </si>
 </sst>
 </file>
@@ -650,45 +656,45 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="35" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="35" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +786,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -797,7 +803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -814,7 +820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -831,7 +837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -851,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -871,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -894,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -920,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -946,7 +952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -987,7 +993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>459403</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2026</v>
       </c>
@@ -1101,6 +1107,12 @@
       <c r="K12" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L12">
+        <v>300</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
       <c r="N12" t="s">
         <v>93</v>
       </c>
@@ -1121,6 +1133,15 @@
       </c>
       <c r="U12" t="s">
         <v>92</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1131,8 +1152,9 @@
     <hyperlink ref="S2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
     <hyperlink ref="S3:S8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
     <hyperlink ref="I12" r:id="rId5" xr:uid="{CF6D3815-16F2-4234-A2EA-8ED8E350CD07}"/>
+    <hyperlink ref="V12" r:id="rId6" xr:uid="{C011DFE0-E0DB-4A84-97EB-7866DAED249D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EC020-F752-480C-987B-2B22D80E55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8DFE4C-7D9D-4299-AFB7-19484A4C2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>Year</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>none yet</t>
+  </si>
+  <si>
+    <t>[here](2026.html)</t>
+  </si>
+  <si>
+    <t>current_link</t>
   </si>
 </sst>
 </file>
@@ -653,48 +659,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,289 +718,292 @@
         <v>39</v>
       </c>
       <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>6</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>9</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>12</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>14</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>15</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>280</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>70</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>38</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>42</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>51</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>16</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>17</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -1003,80 +1013,80 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>280</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>70</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>58</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>43</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>52</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>21</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>19</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>20</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>27</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>63</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>79</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>633799</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>80</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>791009</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>81</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>459403</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2026</v>
       </c>
@@ -1092,67 +1102,70 @@
       <c r="E12" t="s">
         <v>83</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>300</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>100</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>93</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>84</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>86</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>91</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>87</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>95</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
-    <hyperlink ref="I11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
-    <hyperlink ref="S2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
-    <hyperlink ref="S3:S8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
-    <hyperlink ref="I12" r:id="rId5" xr:uid="{CF6D3815-16F2-4234-A2EA-8ED8E350CD07}"/>
-    <hyperlink ref="V12" r:id="rId6" xr:uid="{C011DFE0-E0DB-4A84-97EB-7866DAED249D}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{13C6C09E-5062-432D-8571-63687E438456}"/>
+    <hyperlink ref="J11" r:id="rId2" xr:uid="{AC1AD04E-A23E-4238-AEC3-41961624FF1E}"/>
+    <hyperlink ref="T2" r:id="rId3" xr:uid="{63D3F9EF-A6C3-4658-B195-A3CD6DE0E7D7}"/>
+    <hyperlink ref="T3:T8" r:id="rId4" display="https://www.efspi.org/past-workshops-2/" xr:uid="{0196FBA2-38E1-4621-BF47-4E708FD0EDD1}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{CF6D3815-16F2-4234-A2EA-8ED8E350CD07}"/>
+    <hyperlink ref="W12" r:id="rId6" xr:uid="{C011DFE0-E0DB-4A84-97EB-7866DAED249D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8DFE4C-7D9D-4299-AFB7-19484A4C2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39FBE04-0970-4395-9DE7-CC1B0C7FBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39FBE04-0970-4395-9DE7-CC1B0C7FBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A91430-A535-43EC-B51C-54B23DF16830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,42 +666,42 @@
       <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
+    <col min="7" max="7" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="35" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -813,7 +813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -830,7 +830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -847,7 +847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -887,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -910,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -962,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>459403</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2026</v>
       </c>
